--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H2">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I2">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J2">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.266076</v>
+        <v>5.256051666666667</v>
       </c>
       <c r="N2">
-        <v>27.798228</v>
+        <v>15.768155</v>
       </c>
       <c r="O2">
-        <v>0.5506394579555814</v>
+        <v>0.2751978571638378</v>
       </c>
       <c r="P2">
-        <v>0.5506394579555816</v>
+        <v>0.2751978571638379</v>
       </c>
       <c r="Q2">
-        <v>173.662655928444</v>
+        <v>69.72362077093112</v>
       </c>
       <c r="R2">
-        <v>1562.963903355996</v>
+        <v>627.5125869383801</v>
       </c>
       <c r="S2">
-        <v>0.1221611162599469</v>
+        <v>0.04533725427184013</v>
       </c>
       <c r="T2">
-        <v>0.1221611162599469</v>
+        <v>0.04533725427184013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H3">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I3">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J3">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.544999</v>
       </c>
       <c r="O3">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="P3">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="Q3">
-        <v>40.88828645441033</v>
+        <v>28.94067366931156</v>
       </c>
       <c r="R3">
-        <v>367.994578089693</v>
+        <v>260.466063023804</v>
       </c>
       <c r="S3">
-        <v>0.02876242268968498</v>
+        <v>0.01881845300683177</v>
       </c>
       <c r="T3">
-        <v>0.02876242268968498</v>
+        <v>0.01881845300683177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H4">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I4">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J4">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.380103666666666</v>
+        <v>11.66145566666667</v>
       </c>
       <c r="N4">
-        <v>16.140311</v>
+        <v>34.98436700000001</v>
       </c>
       <c r="O4">
-        <v>0.319714339355534</v>
+        <v>0.6105738326794278</v>
       </c>
       <c r="P4">
-        <v>0.3197143393555341</v>
+        <v>0.6105738326794279</v>
       </c>
       <c r="Q4">
-        <v>100.8326601167197</v>
+        <v>154.6938584519925</v>
       </c>
       <c r="R4">
-        <v>907.4939410504768</v>
+        <v>1392.244726067932</v>
       </c>
       <c r="S4">
-        <v>0.07092964373638132</v>
+        <v>0.1005885052638291</v>
       </c>
       <c r="T4">
-        <v>0.07092964373638133</v>
+        <v>0.1005885052638291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>161.316902</v>
       </c>
       <c r="I5">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J5">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.266076</v>
+        <v>5.256051666666667</v>
       </c>
       <c r="N5">
-        <v>27.798228</v>
+        <v>15.768155</v>
       </c>
       <c r="O5">
-        <v>0.5506394579555814</v>
+        <v>0.2751978571638378</v>
       </c>
       <c r="P5">
-        <v>0.5506394579555816</v>
+        <v>0.2751978571638379</v>
       </c>
       <c r="Q5">
-        <v>498.258224672184</v>
+        <v>282.6299905395344</v>
       </c>
       <c r="R5">
-        <v>4484.324022049656</v>
+        <v>2543.66991485581</v>
       </c>
       <c r="S5">
-        <v>0.3504943569257249</v>
+        <v>0.1837780024080572</v>
       </c>
       <c r="T5">
-        <v>0.350494356925725</v>
+        <v>0.1837780024080572</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>161.316902</v>
       </c>
       <c r="I6">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J6">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.544999</v>
       </c>
       <c r="O6">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="P6">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="Q6">
         <v>117.3132180303442</v>
@@ -818,10 +818,10 @@
         <v>1055.818962273098</v>
       </c>
       <c r="S6">
-        <v>0.0825227138789031</v>
+        <v>0.07628202804847692</v>
       </c>
       <c r="T6">
-        <v>0.0825227138789031</v>
+        <v>0.07628202804847693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>161.316902</v>
       </c>
       <c r="I7">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J7">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.380103666666666</v>
+        <v>11.66145566666667</v>
       </c>
       <c r="N7">
-        <v>16.140311</v>
+        <v>34.98436700000001</v>
       </c>
       <c r="O7">
-        <v>0.319714339355534</v>
+        <v>0.6105738326794278</v>
       </c>
       <c r="P7">
-        <v>0.3197143393555341</v>
+        <v>0.6105738326794279</v>
       </c>
       <c r="Q7">
-        <v>289.3005519818357</v>
+        <v>627.0633003190039</v>
       </c>
       <c r="R7">
-        <v>2603.704967836522</v>
+        <v>5643.569702871035</v>
       </c>
       <c r="S7">
-        <v>0.2035053430213683</v>
+        <v>0.407743143238404</v>
       </c>
       <c r="T7">
-        <v>0.2035053430213683</v>
+        <v>0.407743143238404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H8">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I8">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J8">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.266076</v>
+        <v>5.256051666666667</v>
       </c>
       <c r="N8">
-        <v>27.798228</v>
+        <v>15.768155</v>
       </c>
       <c r="O8">
-        <v>0.5506394579555814</v>
+        <v>0.2751978571638378</v>
       </c>
       <c r="P8">
-        <v>0.5506394579555816</v>
+        <v>0.2751978571638379</v>
       </c>
       <c r="Q8">
-        <v>110.861019689832</v>
+        <v>70.86987979058722</v>
       </c>
       <c r="R8">
-        <v>997.7491772084879</v>
+        <v>637.828918115285</v>
       </c>
       <c r="S8">
-        <v>0.07798398476990961</v>
+        <v>0.04608260048394054</v>
       </c>
       <c r="T8">
-        <v>0.07798398476990961</v>
+        <v>0.04608260048394054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H9">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I9">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J9">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.544999</v>
       </c>
       <c r="O9">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="P9">
-        <v>0.1296462026888844</v>
+        <v>0.1142283101567343</v>
       </c>
       <c r="Q9">
-        <v>26.10185307527266</v>
+        <v>29.41645946272811</v>
       </c>
       <c r="R9">
-        <v>234.916677677454</v>
+        <v>264.748135164553</v>
       </c>
       <c r="S9">
-        <v>0.01836106612029636</v>
+        <v>0.01912782910142565</v>
       </c>
       <c r="T9">
-        <v>0.01836106612029636</v>
+        <v>0.01912782910142564</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H10">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I10">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J10">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.380103666666666</v>
+        <v>11.66145566666667</v>
       </c>
       <c r="N10">
-        <v>16.140311</v>
+        <v>34.98436700000001</v>
       </c>
       <c r="O10">
-        <v>0.319714339355534</v>
+        <v>0.6105738326794278</v>
       </c>
       <c r="P10">
-        <v>0.3197143393555341</v>
+        <v>0.6105738326794279</v>
       </c>
       <c r="Q10">
-        <v>64.36853944686732</v>
+        <v>157.2370314624499</v>
       </c>
       <c r="R10">
-        <v>579.3168550218058</v>
+        <v>1415.133283162049</v>
       </c>
       <c r="S10">
-        <v>0.04527935259778445</v>
+        <v>0.1022421841771947</v>
       </c>
       <c r="T10">
-        <v>0.04527935259778445</v>
+        <v>0.1022421841771947</v>
       </c>
     </row>
   </sheetData>
